--- a/Clang_1Algor/index.xlsx
+++ b/Clang_1Algor/index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CStudy\Basic\Clang_1Algor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098C5089-80D2-4E28-93C9-7BD9F087AB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811D549A-2F52-4510-BAF1-078C911A1729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>기본알고리즘</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,50 @@
   </si>
   <si>
     <t>해시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세 값의 최댓값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조건 판단과 분기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ㅊxㄴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알고리즘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순서도와 기호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1부터n까지의 정수 합 구하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양수만 입력하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구조적 프로그래밍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다중 루프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직각이등변 삼각형 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -91,12 +135,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -111,8 +161,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -393,67 +444,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:B12"/>
+  <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="21.19921875" customWidth="1"/>
+    <col min="3" max="3" width="27.19921875" customWidth="1"/>
+    <col min="4" max="4" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Clang_1Algor/index.xlsx
+++ b/Clang_1Algor/index.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CStudy\Basic\Clang_1Algor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811D549A-2F52-4510-BAF1-078C911A1729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EBCC3A-81DA-4C30-9673-78F2407805AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="main" sheetId="3" r:id="rId1"/>
+    <sheet name="1기본 알고리즘" sheetId="4" r:id="rId2"/>
+    <sheet name="2기본자료" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,49 +27,106 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>기본알고리즘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>기본자료구조</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>배열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구조체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intrary.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intary_init.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intdynamic.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intary_dynamic.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ary_max.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ary_max_rand.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_1_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_1_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_1_03</t>
+  </si>
+  <si>
+    <t>2_1_04</t>
+  </si>
+  <si>
+    <t>2_1_05</t>
+  </si>
+  <si>
+    <t>2_1_06</t>
+  </si>
+  <si>
+    <t>2_1_07</t>
+  </si>
+  <si>
+    <t>2_1_08</t>
+  </si>
+  <si>
+    <t>2_1_09</t>
+  </si>
+  <si>
+    <t>2_1_10</t>
+  </si>
+  <si>
+    <t>2_1_11</t>
+  </si>
+  <si>
+    <t>2_1_12</t>
+  </si>
+  <si>
+    <t>2_1_13</t>
+  </si>
+  <si>
+    <t>기본 알고리즘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 자료구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>검색</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스택큐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재귀알고리즘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정렬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>집합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>트리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해시</t>
+    <t>스택과 큐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1알고리즘이란</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2반복</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -79,39 +138,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>순서도의 기호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1부터 n까지의 정수합 구하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양수만 입력하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구조적 프로그래밍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다중 루프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직각 이등변 삼각형 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>반복</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> ㅊxㄴ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알고리즘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>순서도와 기호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1부터n까지의 정수 합 구하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>양수만 입력하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구조적 프로그래밍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다중 루프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직각이등변 삼각형 출력</t>
+    <t>알고리즘이란?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max3.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max3comb.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1C_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>med3.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum_while.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum_for.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum_for_pos.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1C_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbl_digits.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multi99table.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>triangleLB.c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -119,6 +254,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -135,18 +273,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -163,7 +295,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -443,107 +575,419 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC93C92-AC70-4F84-A963-081A28800EBF}">
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="21.19921875" customWidth="1"/>
-    <col min="3" max="3" width="27.19921875" customWidth="1"/>
-    <col min="4" max="4" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.59765625" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873F47D9-A363-4A3D-B922-904E1130FE3C}">
+  <dimension ref="A1:P15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="E13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="P15" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465516D8-EFEB-445C-AD15-14260B8C3340}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C14">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
+      <c r="D14" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
